--- a/output/3_Regression/h19_test/h23table_mape.xlsx
+++ b/output/3_Regression/h19_test/h23table_mape.xlsx
@@ -572,7 +572,7 @@
         <v>0.9258919240061874</v>
       </c>
       <c r="F9">
-        <v>0.9611680530552397</v>
+        <v>0.9611680530552396</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,7 +592,7 @@
         <v>0.9385560974889009</v>
       </c>
       <c r="F10">
-        <v>0.9316855295849708</v>
+        <v>0.9316855295849705</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,7 +612,7 @@
         <v>0.9447263835133199</v>
       </c>
       <c r="F11">
-        <v>0.9163679392964436</v>
+        <v>0.9163679392964433</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.9326591452822603</v>
       </c>
       <c r="F12">
-        <v>0.9303881298461089</v>
+        <v>0.9303881298461085</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/output/3_Regression/h19_test/h23table_mape.xlsx
+++ b/output/3_Regression/h19_test/h23table_mape.xlsx
@@ -472,7 +472,7 @@
         <v>1.262349037434929</v>
       </c>
       <c r="F4">
-        <v>1.551369383489946</v>
+        <v>1.551369383489945</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/output/3_Regression/h19_test/h23table_mape.xlsx
+++ b/output/3_Regression/h19_test/h23table_mape.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F2090104DA30921FD2FE31D2F8F2D3C2D4588D91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{734AF141-4217-4A80-BEFC-8238E27D6408}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -415,78 +558,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.08913122143605234</v>
+        <v>8.9131221436052344E-2</v>
       </c>
       <c r="C2">
-        <v>12.50470672391896</v>
+        <v>12.504706723918961</v>
       </c>
       <c r="D2">
-        <v>1.77271000800241</v>
+        <v>1.7727100080024101</v>
       </c>
       <c r="E2">
-        <v>1.72769830303948</v>
+        <v>1.7276983030394799</v>
       </c>
       <c r="F2">
-        <v>2.097739922802197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2.0977399228021971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.146952503930348</v>
+        <v>0.14695250393034801</v>
       </c>
       <c r="C3">
-        <v>7.942001117006886</v>
+        <v>7.9420011170068863</v>
       </c>
       <c r="D3">
-        <v>1.440688358094477</v>
+        <v>1.4406883580944769</v>
       </c>
       <c r="E3">
         <v>1.451871436605275</v>
       </c>
       <c r="F3">
-        <v>1.75275324086707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.7527532408670701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2114487390671917</v>
+        <v>0.21144873906719169</v>
       </c>
       <c r="C4">
-        <v>5.779661136677856</v>
+        <v>5.7796611366778556</v>
       </c>
       <c r="D4">
-        <v>1.223338698911966</v>
+        <v>1.2233386989119659</v>
       </c>
       <c r="E4">
-        <v>1.262349037434929</v>
+        <v>1.2623490374349291</v>
       </c>
       <c r="F4">
-        <v>1.551369383489945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.5513693834899449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2855698933189393</v>
+        <v>0.28556989331893928</v>
       </c>
       <c r="C5">
-        <v>4.478432800315311</v>
+        <v>4.4784328003153107</v>
       </c>
       <c r="D5">
-        <v>1.057689473276726</v>
+        <v>1.0576894732767259</v>
       </c>
       <c r="E5">
         <v>1.118994519064662</v>
@@ -495,12 +638,12 @@
         <v>1.421469473555397</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.373233914392323</v>
+        <v>0.37323391439232301</v>
       </c>
       <c r="C6">
         <v>3.58297712109403</v>
@@ -509,13 +652,13 @@
         <v>0.9544598789729416</v>
       </c>
       <c r="E6">
-        <v>1.031694497260465</v>
+        <v>1.0316944972604649</v>
       </c>
       <c r="F6">
-        <v>1.261182945531563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.2611829455315631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -523,59 +666,59 @@
         <v>0.4802424348697803</v>
       </c>
       <c r="C7">
-        <v>2.910447934867604</v>
+        <v>2.9104479348676038</v>
       </c>
       <c r="D7">
-        <v>0.8889648348989705</v>
+        <v>0.88896483489897049</v>
       </c>
       <c r="E7">
-        <v>0.9566288741542814</v>
+        <v>0.95662887415428144</v>
       </c>
       <c r="F7">
         <v>1.11886839228162</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6161265592755268</v>
+        <v>0.61612655927552684</v>
       </c>
       <c r="C8">
-        <v>2.3724703971796</v>
+        <v>2.3724703971796002</v>
       </c>
       <c r="D8">
-        <v>0.8490113217110811</v>
+        <v>0.84901132171108107</v>
       </c>
       <c r="E8">
         <v>0.9253983754252596</v>
       </c>
       <c r="F8">
-        <v>1.017161890194494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.0171618901944941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7981622249134319</v>
+        <v>0.79816222491343192</v>
       </c>
       <c r="C9">
         <v>1.92029721644004</v>
       </c>
       <c r="D9">
-        <v>0.8323246268509376</v>
+        <v>0.83232462685093755</v>
       </c>
       <c r="E9">
-        <v>0.9258919240061874</v>
+        <v>0.92589192400618736</v>
       </c>
       <c r="F9">
-        <v>0.9611680530552396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.96116805305523956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -583,79 +726,361 @@
         <v>1.06308797421381</v>
       </c>
       <c r="C10">
-        <v>1.522027469444407</v>
+        <v>1.5220274694444069</v>
       </c>
       <c r="D10">
-        <v>0.8278061729257858</v>
+        <v>0.82780617292578584</v>
       </c>
       <c r="E10">
         <v>0.9385560974889009</v>
       </c>
       <c r="F10">
-        <v>0.9316855295849705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.93168552958497053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.512993944917787</v>
+        <v>1.5129939449177869</v>
       </c>
       <c r="C11">
-        <v>1.148911704309083</v>
+        <v>1.1489117043090831</v>
       </c>
       <c r="D11">
-        <v>0.8221289835504171</v>
+        <v>0.82212898355041708</v>
       </c>
       <c r="E11">
-        <v>0.9447263835133199</v>
+        <v>0.94472638351331994</v>
       </c>
       <c r="F11">
-        <v>0.9163679392964433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.91636793929644333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.670778457627755</v>
+        <v>2.6707784576277551</v>
       </c>
       <c r="C12">
-        <v>0.7479515244596728</v>
+        <v>0.74795152445967283</v>
       </c>
       <c r="D12">
-        <v>0.8031967275278838</v>
+        <v>0.80319672752788385</v>
       </c>
       <c r="E12">
-        <v>0.9326591452822603</v>
+        <v>0.93265914528226035</v>
       </c>
       <c r="F12">
-        <v>0.9303881298461085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.93038812984610852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.472502314220627</v>
+        <v>6.4725023142206268</v>
       </c>
       <c r="C13">
-        <v>0.3831626694967646</v>
+        <v>0.38316266949676459</v>
       </c>
       <c r="D13">
-        <v>0.7715808483748078</v>
+        <v>0.77158084837480778</v>
       </c>
       <c r="E13">
-        <v>0.8911605031663596</v>
+        <v>0.89116050316635964</v>
       </c>
       <c r="F13">
-        <v>0.9057863627177767</v>
+        <v>0.90578636271777668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8.9131221436052344E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.14695250393034801</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.21144873906719169</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.28556989331893928</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.37323391439232301</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.4802424348697803</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.61612655927552684</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.79816222491343192</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.06308797421381</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.5129939449177869</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.6707784576277551</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6.4725023142206268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12.504706723918961</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.9420011170068863</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.7796611366778556</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.4784328003153107</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.58297712109403</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.9104479348676038</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.3724703971796002</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.92029721644004</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.5220274694444069</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.1489117043090831</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.74795152445967283</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.38316266949676459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.7727100080024101</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.4406883580944769</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.2233386989119699</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0576894732767259</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.9544598789729416</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.88896483489897049</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.84901132171108107</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.83232462685093755</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.82780617292578584</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.82212898355041708</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.80319672752788385</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.77158084837480778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.7276983030394799</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.451871436605275</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2623490374349291</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.118994519064662</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.0316944972604649</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.95662887415428099</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.9253983754252596</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.92589192400618736</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.9385560974889009</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.94472638351331994</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.93265914528226035</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.89116050316635964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.0977399228021971</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.7527532408670701</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.5513693834899449</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.421469473555397</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.2611829455315631</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.11886839228162</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.0171618901944941</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.96116805305523956</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.93168552958497053</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.91636793929644333</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.93038812984610852</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.90578636271777668</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F20">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G20">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K20">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L20">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M20">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h23table_mape.xlsx
+++ b/output/3_Regression/h19_test/h23table_mape.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F2090104DA30921FD2FE31D2F8F2D3C2D4588D91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{734AF141-4217-4A80-BEFC-8238E27D6408}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,154 +90,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -318,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,78 +415,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.9131221436052344E-2</v>
+        <v>0.08913122143605234</v>
       </c>
       <c r="C2">
-        <v>12.504706723918961</v>
+        <v>12.50470672391896</v>
       </c>
       <c r="D2">
-        <v>1.7727100080024101</v>
+        <v>1.77271000800241</v>
       </c>
       <c r="E2">
-        <v>1.7276983030394799</v>
+        <v>1.72769830303948</v>
       </c>
       <c r="F2">
-        <v>2.0977399228021971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.097739922802197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.14695250393034801</v>
+        <v>0.146952503930348</v>
       </c>
       <c r="C3">
-        <v>7.9420011170068863</v>
+        <v>7.942001117006886</v>
       </c>
       <c r="D3">
-        <v>1.4406883580944769</v>
+        <v>1.440688358094477</v>
       </c>
       <c r="E3">
         <v>1.451871436605275</v>
       </c>
       <c r="F3">
-        <v>1.7527532408670701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.75275324086707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.21144873906719169</v>
+        <v>0.2114487390671917</v>
       </c>
       <c r="C4">
-        <v>5.7796611366778556</v>
+        <v>5.779661136677856</v>
       </c>
       <c r="D4">
-        <v>1.2233386989119659</v>
+        <v>1.223338698911966</v>
       </c>
       <c r="E4">
-        <v>1.2623490374349291</v>
+        <v>1.262349037434929</v>
       </c>
       <c r="F4">
-        <v>1.5513693834899449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.551369383489945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.28556989331893928</v>
+        <v>0.2855698933189393</v>
       </c>
       <c r="C5">
-        <v>4.4784328003153107</v>
+        <v>4.478432800315311</v>
       </c>
       <c r="D5">
-        <v>1.0576894732767259</v>
+        <v>1.057689473276726</v>
       </c>
       <c r="E5">
         <v>1.118994519064662</v>
@@ -638,12 +495,12 @@
         <v>1.421469473555397</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.37323391439232301</v>
+        <v>0.373233914392323</v>
       </c>
       <c r="C6">
         <v>3.58297712109403</v>
@@ -652,13 +509,13 @@
         <v>0.9544598789729416</v>
       </c>
       <c r="E6">
-        <v>1.0316944972604649</v>
+        <v>1.031694497260465</v>
       </c>
       <c r="F6">
-        <v>1.2611829455315631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.261182945531563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -666,59 +523,59 @@
         <v>0.4802424348697803</v>
       </c>
       <c r="C7">
-        <v>2.9104479348676038</v>
+        <v>2.910447934867604</v>
       </c>
       <c r="D7">
-        <v>0.88896483489897049</v>
+        <v>0.8889648348989705</v>
       </c>
       <c r="E7">
-        <v>0.95662887415428144</v>
+        <v>0.9566288741542814</v>
       </c>
       <c r="F7">
         <v>1.11886839228162</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.61612655927552684</v>
+        <v>0.6161265592755268</v>
       </c>
       <c r="C8">
-        <v>2.3724703971796002</v>
+        <v>2.3724703971796</v>
       </c>
       <c r="D8">
-        <v>0.84901132171108107</v>
+        <v>0.8490113217110811</v>
       </c>
       <c r="E8">
         <v>0.9253983754252596</v>
       </c>
       <c r="F8">
-        <v>1.0171618901944941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.017161890194494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.79816222491343192</v>
+        <v>0.7981622249134319</v>
       </c>
       <c r="C9">
         <v>1.92029721644004</v>
       </c>
       <c r="D9">
-        <v>0.83232462685093755</v>
+        <v>0.8323246268509376</v>
       </c>
       <c r="E9">
-        <v>0.92589192400618736</v>
+        <v>0.9258919240061874</v>
       </c>
       <c r="F9">
-        <v>0.96116805305523956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9611680530552396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -726,361 +583,79 @@
         <v>1.06308797421381</v>
       </c>
       <c r="C10">
-        <v>1.5220274694444069</v>
+        <v>1.522027469444407</v>
       </c>
       <c r="D10">
-        <v>0.82780617292578584</v>
+        <v>0.8278061729257858</v>
       </c>
       <c r="E10">
         <v>0.9385560974889009</v>
       </c>
       <c r="F10">
-        <v>0.93168552958497053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9316855295849705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.5129939449177869</v>
+        <v>1.512993944917787</v>
       </c>
       <c r="C11">
-        <v>1.1489117043090831</v>
+        <v>1.148911704309083</v>
       </c>
       <c r="D11">
-        <v>0.82212898355041708</v>
+        <v>0.8221289835504171</v>
       </c>
       <c r="E11">
-        <v>0.94472638351331994</v>
+        <v>0.9447263835133199</v>
       </c>
       <c r="F11">
-        <v>0.91636793929644333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9163679392964433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.6707784576277551</v>
+        <v>2.670778457627755</v>
       </c>
       <c r="C12">
-        <v>0.74795152445967283</v>
+        <v>0.7479515244596728</v>
       </c>
       <c r="D12">
-        <v>0.80319672752788385</v>
+        <v>0.8031967275278838</v>
       </c>
       <c r="E12">
-        <v>0.93265914528226035</v>
+        <v>0.9326591452822603</v>
       </c>
       <c r="F12">
-        <v>0.93038812984610852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9303881298461085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.4725023142206268</v>
+        <v>6.472502314220627</v>
       </c>
       <c r="C13">
-        <v>0.38316266949676459</v>
+        <v>0.3831626694967646</v>
       </c>
       <c r="D13">
-        <v>0.77158084837480778</v>
+        <v>0.7715808483748078</v>
       </c>
       <c r="E13">
-        <v>0.89116050316635964</v>
+        <v>0.8911605031663596</v>
       </c>
       <c r="F13">
-        <v>0.90578636271777668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8.9131221436052344E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.14695250393034801</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.21144873906719169</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.28556989331893928</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.37323391439232301</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.4802424348697803</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.61612655927552684</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.79816222491343192</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.06308797421381</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.5129939449177869</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2.6707784576277551</v>
-      </c>
-      <c r="M16" s="2">
-        <v>6.4725023142206268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12.504706723918961</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7.9420011170068863</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.7796611366778556</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.4784328003153107</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.58297712109403</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.9104479348676038</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2.3724703971796002</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.92029721644004</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.5220274694444069</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.1489117043090831</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.74795152445967283</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.38316266949676459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.7727100080024101</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.4406883580944769</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.2233386989119699</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.0576894732767259</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.9544598789729416</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.88896483489897049</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.84901132171108107</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.83232462685093755</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.82780617292578584</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.82212898355041708</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.80319672752788385</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.77158084837480778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.7276983030394799</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.451871436605275</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.2623490374349291</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.118994519064662</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.0316944972604649</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.95662887415428099</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.9253983754252596</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.92589192400618736</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.9385560974889009</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.94472638351331994</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.93265914528226035</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.89116050316635964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.0977399228021971</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.7527532408670701</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.5513693834899449</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.421469473555397</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.2611829455315631</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.11886839228162</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.0171618901944941</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.96116805305523956</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.93168552958497053</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.91636793929644333</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.93038812984610852</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.90578636271777668</v>
+        <v>0.9057863627177767</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F20">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K20">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L20">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M20">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h23table_mape.xlsx
+++ b/output/3_Regression/h19_test/h23table_mape.xlsx
@@ -420,19 +420,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.08913122143605234</v>
+        <v>0.08913122143605187</v>
       </c>
       <c r="C2">
-        <v>12.50470672391896</v>
+        <v>11.28678123184012</v>
       </c>
       <c r="D2">
-        <v>1.77271000800241</v>
+        <v>1.193880622141764</v>
       </c>
       <c r="E2">
-        <v>1.72769830303948</v>
+        <v>0.8426650012175344</v>
       </c>
       <c r="F2">
-        <v>2.097739922802197</v>
+        <v>1.703071535918263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.146952503930348</v>
+        <v>0.146952503930341</v>
       </c>
       <c r="C3">
-        <v>7.942001117006886</v>
+        <v>6.84559554627089</v>
       </c>
       <c r="D3">
-        <v>1.440688358094477</v>
+        <v>0.4792494585104403</v>
       </c>
       <c r="E3">
-        <v>1.451871436605275</v>
+        <v>0.8102918113541817</v>
       </c>
       <c r="F3">
-        <v>1.75275324086707</v>
+        <v>1.528863757164409</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2114487390671917</v>
+        <v>0.2114487390671804</v>
       </c>
       <c r="C4">
-        <v>5.779661136677856</v>
+        <v>4.605412596532191</v>
       </c>
       <c r="D4">
-        <v>1.223338698911966</v>
+        <v>0.4046775816363003</v>
       </c>
       <c r="E4">
-        <v>1.262349037434929</v>
+        <v>0.7663327760963216</v>
       </c>
       <c r="F4">
-        <v>1.551369383489945</v>
+        <v>1.378215647457778</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2855698933189393</v>
+        <v>0.2855698933189235</v>
       </c>
       <c r="C5">
-        <v>4.478432800315311</v>
+        <v>3.250372164012324</v>
       </c>
       <c r="D5">
-        <v>1.057689473276726</v>
+        <v>0.411781911120755</v>
       </c>
       <c r="E5">
-        <v>1.118994519064662</v>
+        <v>0.7576109241899629</v>
       </c>
       <c r="F5">
-        <v>1.421469473555397</v>
+        <v>1.269273306373401</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.373233914392323</v>
+        <v>0.373233914392299</v>
       </c>
       <c r="C6">
-        <v>3.58297712109403</v>
+        <v>2.32181379429415</v>
       </c>
       <c r="D6">
-        <v>0.9544598789729416</v>
+        <v>0.4441962728457607</v>
       </c>
       <c r="E6">
-        <v>1.031694497260465</v>
+        <v>0.7354254407175495</v>
       </c>
       <c r="F6">
-        <v>1.261182945531563</v>
+        <v>1.226175085620683</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4802424348697803</v>
+        <v>0.4802424348697441</v>
       </c>
       <c r="C7">
-        <v>2.910447934867604</v>
+        <v>1.63869574002465</v>
       </c>
       <c r="D7">
-        <v>0.8889648348989705</v>
+        <v>0.4931562604164993</v>
       </c>
       <c r="E7">
-        <v>0.9566288741542814</v>
+        <v>0.709258234743065</v>
       </c>
       <c r="F7">
-        <v>1.11886839228162</v>
+        <v>1.169850195341612</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6161265592755268</v>
+        <v>0.6161265592754731</v>
       </c>
       <c r="C8">
-        <v>2.3724703971796</v>
+        <v>1.119754958501215</v>
       </c>
       <c r="D8">
-        <v>0.8490113217110811</v>
+        <v>0.5040120988546388</v>
       </c>
       <c r="E8">
-        <v>0.9253983754252596</v>
+        <v>0.6983391511816748</v>
       </c>
       <c r="F8">
-        <v>1.017161890194494</v>
+        <v>1.145513068873322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7981622249134319</v>
+        <v>0.7981622249133468</v>
       </c>
       <c r="C9">
-        <v>1.92029721644004</v>
+        <v>0.7948548448537971</v>
       </c>
       <c r="D9">
-        <v>0.8323246268509376</v>
+        <v>0.5013544741547004</v>
       </c>
       <c r="E9">
-        <v>0.9258919240061874</v>
+        <v>0.68871522297084</v>
       </c>
       <c r="F9">
-        <v>0.9611680530552396</v>
+        <v>1.01039270307898</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.06308797421381</v>
+        <v>1.063087974213662</v>
       </c>
       <c r="C10">
-        <v>1.522027469444407</v>
+        <v>0.60893382436809</v>
       </c>
       <c r="D10">
-        <v>0.8278061729257858</v>
+        <v>0.5112097654505927</v>
       </c>
       <c r="E10">
-        <v>0.9385560974889009</v>
+        <v>0.6865309957900915</v>
       </c>
       <c r="F10">
-        <v>0.9316855295849705</v>
+        <v>0.9703766140885134</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.512993944917787</v>
+        <v>1.51299394491748</v>
       </c>
       <c r="C11">
-        <v>1.148911704309083</v>
+        <v>0.4802329927333438</v>
       </c>
       <c r="D11">
-        <v>0.8221289835504171</v>
+        <v>0.5240091309626362</v>
       </c>
       <c r="E11">
-        <v>0.9447263835133199</v>
+        <v>0.6913429869778099</v>
       </c>
       <c r="F11">
-        <v>0.9163679392964433</v>
+        <v>0.9608404545279449</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.670778457627755</v>
+        <v>2.670778457626523</v>
       </c>
       <c r="C12">
-        <v>0.7479515244596728</v>
+        <v>0.3891383797328897</v>
       </c>
       <c r="D12">
-        <v>0.8031967275278838</v>
+        <v>0.5669603606493065</v>
       </c>
       <c r="E12">
-        <v>0.9326591452822603</v>
+        <v>0.7002416095633723</v>
       </c>
       <c r="F12">
-        <v>0.9303881298461085</v>
+        <v>0.9908664832972173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.472502314220627</v>
+        <v>6.472502314230124</v>
       </c>
       <c r="C13">
-        <v>0.3831626694967646</v>
+        <v>0.3333546014152005</v>
       </c>
       <c r="D13">
-        <v>0.7715808483748078</v>
+        <v>0.5905635054664574</v>
       </c>
       <c r="E13">
-        <v>0.8911605031663596</v>
+        <v>0.703460588531159</v>
       </c>
       <c r="F13">
-        <v>0.9057863627177767</v>
+        <v>0.9888647119653284</v>
       </c>
     </row>
   </sheetData>
